--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,78 +40,72 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>hate</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>dark</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -130,30 +124,30 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -166,49 +160,40 @@
     <t>wow</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>right</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -572,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -691,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -741,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9134615384615384</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,49 +876,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L8">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>15</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L8">
-        <v>21</v>
-      </c>
-      <c r="M8">
-        <v>21</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,16 +947,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,16 +997,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,37 +1076,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="L12">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>11</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1141,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.675</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>0.5185185185185185</v>
@@ -1191,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>0.3636363636363636</v>
@@ -1241,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>0.3333333333333333</v>
@@ -1341,37 +1326,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.2711864406779661</v>
+        <v>0.2704918032786885</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2522768670309654</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L18">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>821</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5531914893617021</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.2195121951219512</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,37 +1476,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5428571428571428</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>16</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.2173913043478261</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.2</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,38 +1576,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5217391304347826</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>0.1411764705882353</v>
+      </c>
+      <c r="L22">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22">
-        <v>0.1639344262295082</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1633,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3928571428571428</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1549295774647887</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1712,16 +1697,16 @@
         <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.1473684210526316</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1733,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.1294117647058824</v>
+        <v>0.05278592375366569</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1791,13 +1776,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.358974358974359</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1809,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.06475903614457831</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1833,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>621</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,227 +1826,101 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3571428571428572</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.04058441558441558</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.03585147247119078</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="M28">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K27">
-        <v>0.04074074074074074</v>
-      </c>
-      <c r="L27">
-        <v>22</v>
-      </c>
-      <c r="M27">
-        <v>22</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>66</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28">
-        <v>0.03519061583577713</v>
-      </c>
-      <c r="L28">
-        <v>12</v>
-      </c>
-      <c r="M28">
-        <v>12</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>0.14</v>
-      </c>
-      <c r="F29">
-        <v>0.86</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>285</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K29">
-        <v>0.03461538461538462</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="L30">
-        <v>21</v>
-      </c>
-      <c r="M30">
-        <v>21</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32">
-        <v>0.02246543778801843</v>
-      </c>
-      <c r="L32">
-        <v>39</v>
-      </c>
-      <c r="M32">
-        <v>39</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1697</v>
+        <v>1704</v>
       </c>
     </row>
   </sheetData>
